--- a/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_online 7.xlsx
+++ b/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_online 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5CE709-8313-413B-89ED-9693F9F3C93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3FB66-6B52-4ACC-A60D-677AE0F6278F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8758,9 +8757,6 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>7.6999999999999999E-2</v>
-          </cell>
           <cell r="I2">
             <v>0</v>
           </cell>
@@ -8823,202 +8819,6 @@
         <row r="14">
           <cell r="I14">
             <v>144</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>2649.39</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="K2">
-            <v>2649.39</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>2512.7193734771499</v>
-          </cell>
-          <cell r="D3">
-            <v>0.51719988936062777</v>
-          </cell>
-          <cell r="K3">
-            <v>2697.95</v>
-          </cell>
-          <cell r="L3">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>2476.7836513352709</v>
-          </cell>
-          <cell r="D4">
-            <v>1.263511595677512</v>
-          </cell>
-          <cell r="K4">
-            <v>2418.3200000000002</v>
-          </cell>
-          <cell r="L4">
-            <v>1.35</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>2170.6092424326189</v>
-          </cell>
-          <cell r="D5">
-            <v>1.821805323021517</v>
-          </cell>
-          <cell r="K5">
-            <v>2332.4499999999998</v>
-          </cell>
-          <cell r="L5">
-            <v>1.93</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2256.8567402802059</v>
-          </cell>
-          <cell r="D6">
-            <v>2.3775133906608459</v>
-          </cell>
-          <cell r="K6">
-            <v>2600.84</v>
-          </cell>
-          <cell r="L6">
-            <v>2.35</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>3247.9630614765952</v>
-          </cell>
-          <cell r="D7">
-            <v>2.7786088800270421</v>
-          </cell>
-          <cell r="K7">
-            <v>2349.98</v>
-          </cell>
-          <cell r="L7">
-            <v>2.83</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>3902.632423135125</v>
-          </cell>
-          <cell r="D8">
-            <v>3.2815631086053378</v>
-          </cell>
-          <cell r="K8">
-            <v>3456.13</v>
-          </cell>
-          <cell r="L8">
-            <v>3.11</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>5730.8645223980193</v>
-          </cell>
-          <cell r="D9">
-            <v>3.5196819941247308</v>
-          </cell>
-          <cell r="K9">
-            <v>6389.51</v>
-          </cell>
-          <cell r="L9">
-            <v>3.45</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>8825.357257846299</v>
-          </cell>
-          <cell r="D10">
-            <v>3.7676991778896372</v>
-          </cell>
-          <cell r="K10">
-            <v>8332.61</v>
-          </cell>
-          <cell r="L10">
-            <v>3.68</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>10494.52429342817</v>
-          </cell>
-          <cell r="D11">
-            <v>3.931399036232766</v>
-          </cell>
-          <cell r="K11">
-            <v>10569.2</v>
-          </cell>
-          <cell r="L11">
-            <v>3.98</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>12473.09580665811</v>
-          </cell>
-          <cell r="D12">
-            <v>4.1812186919904413</v>
-          </cell>
-          <cell r="K12">
-            <v>11934.88</v>
-          </cell>
-          <cell r="L12">
-            <v>4.18</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>13705.573163705971</v>
-          </cell>
-          <cell r="D13">
-            <v>4.3572705737280044</v>
-          </cell>
-          <cell r="K13">
-            <v>13419.53</v>
-          </cell>
-          <cell r="L13">
-            <v>4.42</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>15078.31754818467</v>
-          </cell>
-          <cell r="D14">
-            <v>4.5780082644531506</v>
-          </cell>
-          <cell r="K14">
-            <v>15082.08</v>
-          </cell>
-          <cell r="L14">
-            <v>4.62</v>
           </cell>
         </row>
       </sheetData>
@@ -9314,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
